--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ภาระการสอน_02_68.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ภาระการสอน_02_68.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_DOCUMENT\ตารางสอน\2568\2-68\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7F3161-FC86-4FCD-8B1F-867BC7FC6EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C4BED4-B275-486C-A2F8-D5613E08FBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ฟอร์ม" sheetId="29" r:id="rId1"/>
@@ -29,12 +29,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="79">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -550,7 +553,13 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -559,40 +568,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -604,13 +589,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -905,10 +908,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" customHeight="1"/>
@@ -929,80 +932,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="35" t="s">
+      <c r="B3" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="36" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="39" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
@@ -1021,18 +1024,18 @@
       <c r="J4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="37"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="37"/>
+      <c r="M4" s="40"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A5" s="30">
-        <v>1</v>
-      </c>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="24">
+        <v>1</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1075,8 +1078,8 @@
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
@@ -1117,8 +1120,8 @@
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="6" t="s">
         <v>48</v>
       </c>
@@ -1155,8 +1158,8 @@
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
@@ -1193,12 +1196,12 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="25" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="8">
         <f t="shared" ref="E9:J9" si="0">SUM(E5:E8)</f>
         <v>4</v>
@@ -1223,16 +1226,16 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A10" s="30">
-        <v>2</v>
-      </c>
-      <c r="B10" s="39" t="s">
+      <c r="A10" s="24">
+        <v>2</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>78</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -1271,8 +1274,8 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A11" s="31"/>
-      <c r="B11" s="40"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="6" t="s">
         <v>57</v>
       </c>
@@ -1309,8 +1312,8 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A12" s="31"/>
-      <c r="B12" s="40"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="6" t="s">
         <v>57</v>
       </c>
@@ -1347,12 +1350,12 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="25" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="8">
         <f>SUM(E11:E12)</f>
         <v>0</v>
@@ -1383,10 +1386,10 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A14" s="30">
-        <v>3</v>
-      </c>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="24">
+        <v>3</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1423,12 +1426,12 @@
         <v>51</v>
       </c>
       <c r="N14" s="2"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
     </row>
     <row r="15" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
@@ -1463,16 +1466,16 @@
         <v>30</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
     </row>
     <row r="16" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="25" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="12">
         <f t="shared" ref="E16:J16" si="1">SUM(E14:E15)</f>
         <v>4</v>
@@ -1497,16 +1500,16 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K16" s="27"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="29"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="44"/>
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A17" s="30">
+      <c r="A17" s="24">
         <v>4</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -1545,8 +1548,8 @@
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="6" t="s">
         <v>37</v>
       </c>
@@ -1583,8 +1586,8 @@
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="6" t="s">
         <v>60</v>
       </c>
@@ -1610,97 +1613,97 @@
         <v>5</v>
       </c>
       <c r="K19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L19" s="6">
+        <v>15</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
+        <v>3</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>3</v>
+      </c>
+      <c r="J20" s="7">
+        <v>5</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L20" s="6">
         <v>11</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="25" t="s">
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="8">
-        <f t="shared" ref="E20:J20" si="2">SUM(E17:E19)</f>
-        <v>6</v>
-      </c>
-      <c r="F20" s="8">
+      <c r="D21" s="28"/>
+      <c r="E21" s="8">
+        <f t="shared" ref="E21:J21" si="2">SUM(E17:E20)</f>
+        <v>8</v>
+      </c>
+      <c r="F21" s="8">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G20" s="8">
+        <v>4</v>
+      </c>
+      <c r="G21" s="8">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="H20" s="8">
+        <v>12</v>
+      </c>
+      <c r="H21" s="8">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="I20" s="8">
+        <v>8</v>
+      </c>
+      <c r="I21" s="8">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="J20" s="8">
+        <v>12</v>
+      </c>
+      <c r="J21" s="8">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="K20" s="42"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A21" s="30">
+        <v>20</v>
+      </c>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A22" s="24">
         <v>5</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B22" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="7">
-        <v>2</v>
-      </c>
-      <c r="F21" s="7">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7">
-        <v>3</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3</v>
-      </c>
-      <c r="J21" s="7">
-        <v>5</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L21" s="6">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
       <c r="C22" s="6" t="s">
         <v>34</v>
       </c>
@@ -1729,208 +1732,208 @@
         <v>68</v>
       </c>
       <c r="L22" s="6">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E23" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="7">
         <v>3</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J23" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>68</v>
       </c>
       <c r="L23" s="6">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0</v>
-      </c>
-      <c r="F24" s="9">
-        <v>1</v>
-      </c>
-      <c r="G24" s="9">
-        <v>1</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-      <c r="I24" s="9">
-        <v>3</v>
-      </c>
-      <c r="J24" s="9">
-        <v>3</v>
+        <v>43</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7">
+        <v>2</v>
+      </c>
+      <c r="G24" s="7">
+        <v>3</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>6</v>
+      </c>
+      <c r="J24" s="7">
+        <v>7</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>68</v>
       </c>
       <c r="L24" s="6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="6" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="7">
-        <v>2</v>
-      </c>
-      <c r="F25" s="7">
-        <v>1</v>
-      </c>
-      <c r="G25" s="7">
-        <v>3</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3</v>
-      </c>
-      <c r="J25" s="7">
-        <v>5</v>
+        <v>59</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>3</v>
+      </c>
+      <c r="J25" s="9">
+        <v>3</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>68</v>
       </c>
       <c r="L25" s="6">
+        <v>6</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="7">
+        <v>2</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7">
+        <v>3</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3</v>
+      </c>
+      <c r="J26" s="7">
+        <v>5</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="6">
         <v>11</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="25" t="s">
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="8">
-        <f t="shared" ref="E26:J26" si="3">SUM(E21:E25)</f>
+      <c r="D27" s="28"/>
+      <c r="E27" s="8">
+        <f t="shared" ref="E27:J27" si="3">SUM(E22:E26)</f>
         <v>7</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F27" s="8">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G27" s="8">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H27" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I27" s="8">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J27" s="8">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="K26" s="42"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A27" s="39">
+      <c r="K27" s="29"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A28" s="33">
         <v>6</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B28" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="20">
-        <v>2</v>
-      </c>
-      <c r="F27" s="20">
-        <v>1</v>
-      </c>
-      <c r="G27" s="20">
-        <v>3</v>
-      </c>
-      <c r="H27" s="20">
-        <v>2</v>
-      </c>
-      <c r="I27" s="20">
-        <v>3</v>
-      </c>
-      <c r="J27" s="20">
-        <v>5</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="L27" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="M27" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
       <c r="C28" s="18" t="s">
         <v>69</v>
       </c>
@@ -1956,57 +1959,57 @@
         <v>5</v>
       </c>
       <c r="K28" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="20">
+        <v>2</v>
+      </c>
+      <c r="F29" s="20">
+        <v>1</v>
+      </c>
+      <c r="G29" s="20">
+        <v>3</v>
+      </c>
+      <c r="H29" s="20">
+        <v>2</v>
+      </c>
+      <c r="I29" s="20">
+        <v>3</v>
+      </c>
+      <c r="J29" s="20">
+        <v>5</v>
+      </c>
+      <c r="K29" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="L28" s="20" t="s">
+      <c r="L29" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M28" s="23" t="s">
+      <c r="M29" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="6">
-        <v>2</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6">
-        <v>3</v>
-      </c>
-      <c r="H29" s="6">
-        <v>2</v>
-      </c>
-      <c r="I29" s="6">
-        <v>3</v>
-      </c>
-      <c r="J29" s="6">
-        <v>5</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L29" s="6">
-        <v>8</v>
-      </c>
-      <c r="M29" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="6" t="s">
         <v>39</v>
       </c>
@@ -2035,82 +2038,82 @@
         <v>68</v>
       </c>
       <c r="L30" s="6">
+        <v>8</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="6">
+        <v>2</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6">
+        <v>3</v>
+      </c>
+      <c r="H31" s="6">
+        <v>2</v>
+      </c>
+      <c r="I31" s="6">
+        <v>3</v>
+      </c>
+      <c r="J31" s="6">
+        <v>5</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" s="6">
         <v>15</v>
       </c>
-      <c r="M30" s="16" t="s">
+      <c r="M31" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="6" t="s">
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="6">
-        <v>2</v>
-      </c>
-      <c r="F31" s="6">
-        <v>1</v>
-      </c>
-      <c r="G31" s="6">
-        <v>3</v>
-      </c>
-      <c r="H31" s="6">
-        <v>2</v>
-      </c>
-      <c r="I31" s="6">
-        <v>3</v>
-      </c>
-      <c r="J31" s="5">
+      <c r="E32" s="6">
+        <v>2</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6">
+        <v>3</v>
+      </c>
+      <c r="H32" s="6">
+        <v>2</v>
+      </c>
+      <c r="I32" s="6">
+        <v>3</v>
+      </c>
+      <c r="J32" s="5">
         <v>5</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K32" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L31" s="1">
-        <v>11</v>
-      </c>
-      <c r="M31" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="6">
-        <v>2</v>
-      </c>
-      <c r="F32" s="6">
-        <v>1</v>
-      </c>
-      <c r="G32" s="6">
-        <v>3</v>
-      </c>
-      <c r="H32" s="6">
-        <v>2</v>
-      </c>
-      <c r="I32" s="6">
-        <v>3</v>
-      </c>
-      <c r="J32" s="6">
-        <v>5</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L32" s="6">
+      <c r="L32" s="1">
         <v>11</v>
       </c>
       <c r="M32" s="16" t="s">
@@ -2118,108 +2121,108 @@
       </c>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" s="10" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="25" t="s">
+    <row r="33" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="6">
+        <v>2</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
+      <c r="G33" s="6">
+        <v>3</v>
+      </c>
+      <c r="H33" s="6">
+        <v>2</v>
+      </c>
+      <c r="I33" s="6">
+        <v>3</v>
+      </c>
+      <c r="J33" s="6">
+        <v>5</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L33" s="6">
+        <v>11</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="1:14" s="10" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="8">
-        <f>SUM(E29:E32)</f>
+      <c r="D34" s="28"/>
+      <c r="E34" s="8">
+        <f>SUM(E30:E33)</f>
         <v>8</v>
       </c>
-      <c r="F33" s="8">
-        <f>SUM(F29:F32)</f>
+      <c r="F34" s="8">
+        <f>SUM(F30:F33)</f>
         <v>4</v>
       </c>
-      <c r="G33" s="8">
-        <f>SUM(G29:G32)</f>
+      <c r="G34" s="8">
+        <f>SUM(G30:G33)</f>
         <v>12</v>
       </c>
-      <c r="H33" s="8">
-        <f>SUM(H29:H32)</f>
+      <c r="H34" s="8">
+        <f>SUM(H30:H33)</f>
         <v>8</v>
       </c>
-      <c r="I33" s="8">
-        <f>SUM(I29:I32)</f>
+      <c r="I34" s="8">
+        <f>SUM(I30:I33)</f>
         <v>12</v>
       </c>
-      <c r="J33" s="8">
-        <f>SUM(J27:J32)</f>
+      <c r="J34" s="8">
+        <f>SUM(J28:J33)</f>
         <v>30</v>
       </c>
-      <c r="K33" s="42"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="44"/>
-    </row>
-    <row r="34" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A34" s="30">
+      <c r="K34" s="29"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="31"/>
+    </row>
+    <row r="35" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A35" s="24">
         <v>7</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B35" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="6">
-        <v>2</v>
-      </c>
-      <c r="F34" s="6">
-        <v>1</v>
-      </c>
-      <c r="G34" s="6">
-        <v>3</v>
-      </c>
-      <c r="H34" s="6">
-        <v>2</v>
-      </c>
-      <c r="I34" s="6">
-        <v>3</v>
-      </c>
-      <c r="J34" s="6">
-        <v>5</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="L34" s="6">
-        <v>6</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N34" s="2"/>
-    </row>
-    <row r="35" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="5">
-        <v>2</v>
-      </c>
-      <c r="F35" s="5">
-        <v>1</v>
-      </c>
-      <c r="G35" s="5">
-        <v>3</v>
-      </c>
-      <c r="H35" s="5">
-        <v>2</v>
-      </c>
-      <c r="I35" s="5">
-        <v>3</v>
-      </c>
-      <c r="J35" s="5">
+      <c r="E35" s="6">
+        <v>2</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6">
+        <v>3</v>
+      </c>
+      <c r="H35" s="6">
+        <v>2</v>
+      </c>
+      <c r="I35" s="6">
+        <v>3</v>
+      </c>
+      <c r="J35" s="6">
         <v>5</v>
       </c>
       <c r="K35" s="6" t="s">
@@ -2228,14 +2231,14 @@
       <c r="L35" s="6">
         <v>6</v>
       </c>
-      <c r="M35" s="11" t="s">
-        <v>27</v>
+      <c r="M35" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="N35" s="2"/>
     </row>
     <row r="36" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="6" t="s">
         <v>25</v>
       </c>
@@ -2264,228 +2267,248 @@
         <v>68</v>
       </c>
       <c r="L36" s="6">
+        <v>6</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="5">
+        <v>2</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5">
+        <v>3</v>
+      </c>
+      <c r="H37" s="5">
+        <v>2</v>
+      </c>
+      <c r="I37" s="5">
+        <v>3</v>
+      </c>
+      <c r="J37" s="5">
+        <v>5</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L37" s="6">
         <v>13</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N36" s="2"/>
-    </row>
-    <row r="37" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="25" t="s">
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="8">
-        <f t="shared" ref="E37:J37" si="4">SUM(E34:E36)</f>
+      <c r="D38" s="28"/>
+      <c r="E38" s="8">
+        <f t="shared" ref="E38:J38" si="4">SUM(E35:E37)</f>
         <v>6</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F38" s="8">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G38" s="8">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H38" s="8">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I38" s="8">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J38" s="8">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="K37" s="42"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="44"/>
-    </row>
-    <row r="38" spans="1:14" ht="17.25" customHeight="1">
-      <c r="B38" s="4"/>
-      <c r="C38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="31"/>
     </row>
     <row r="39" spans="1:14" ht="17.25" customHeight="1">
-      <c r="H39" s="24" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" ht="17.25" customHeight="1">
+      <c r="H40" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-    </row>
-    <row r="40" spans="1:14" ht="17.25" customHeight="1">
-      <c r="H40" s="24" t="s">
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+    </row>
+    <row r="41" spans="1:14" ht="17.25" customHeight="1">
+      <c r="H41" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-    </row>
-    <row r="41" spans="1:14" ht="17.25" customHeight="1">
-      <c r="H41" s="24" t="s">
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+    </row>
+    <row r="42" spans="1:14" ht="17.25" customHeight="1">
+      <c r="H42" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-    </row>
-    <row r="42" spans="1:14" ht="17.25" customHeight="1">
-      <c r="E42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
     </row>
     <row r="43" spans="1:14" ht="17.25" customHeight="1">
-      <c r="H43" s="24" t="s">
+      <c r="E43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:14" ht="17.25" customHeight="1">
+      <c r="H44" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-    </row>
-    <row r="44" spans="1:14" ht="17.25" customHeight="1">
-      <c r="H44" s="24" t="s">
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+    </row>
+    <row r="45" spans="1:14" ht="17.25" customHeight="1">
+      <c r="H45" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-    </row>
-    <row r="45" spans="1:14" ht="17.25" customHeight="1">
-      <c r="H45" s="24" t="s">
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+    </row>
+    <row r="46" spans="1:14" ht="17.25" customHeight="1">
+      <c r="H46" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-    </row>
-    <row r="46" spans="1:14" ht="17.25" customHeight="1">
-      <c r="E46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
     </row>
     <row r="47" spans="1:14" ht="17.25" customHeight="1">
-      <c r="H47" s="24" t="s">
+      <c r="E47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:14" ht="17.25" customHeight="1">
+      <c r="H48" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-    </row>
-    <row r="48" spans="1:14" ht="17.25" customHeight="1">
-      <c r="H48" s="24" t="s">
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+    </row>
+    <row r="49" spans="5:13" ht="17.25" customHeight="1">
+      <c r="H49" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-    </row>
-    <row r="49" spans="5:13" ht="17.25" customHeight="1">
-      <c r="H49" s="24" t="s">
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+    </row>
+    <row r="50" spans="5:13" ht="17.25" customHeight="1">
+      <c r="H50" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-    </row>
-    <row r="50" spans="5:13" ht="17.25" customHeight="1">
-      <c r="E50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="5:13" ht="18.75" customHeight="1">
-      <c r="H51" s="24" t="s">
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+    </row>
+    <row r="51" spans="5:13" ht="17.25" customHeight="1">
+      <c r="E51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="5:13" ht="18.75" customHeight="1">
+      <c r="H52" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-    </row>
-    <row r="52" spans="5:13" ht="18.75" customHeight="1">
-      <c r="H52" s="24" t="s">
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+    </row>
+    <row r="53" spans="5:13" ht="18.75" customHeight="1">
+      <c r="H53" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-    </row>
-    <row r="53" spans="5:13" ht="18.75" customHeight="1">
-      <c r="H53" s="24" t="s">
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+    </row>
+    <row r="54" spans="5:13" ht="18.75" customHeight="1">
+      <c r="H54" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="H53:M53"/>
+    <mergeCell ref="H54:M54"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="H52:M52"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:A4"/>
@@ -2496,17 +2519,35 @@
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="H51:M51"/>
-    <mergeCell ref="H52:M52"/>
-    <mergeCell ref="H53:M53"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="K38:M38"/>
     <mergeCell ref="H49:M49"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="H48:M48"/>
   </mergeCells>
   <pageMargins left="0.34" right="0.32" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
